--- a/zhoubao/周报第十周.xlsx
+++ b/zhoubao/周报第十周.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0DC2BB-EDCF-4061-864F-1677BCB884DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B039FC7-072E-4A08-95A3-64AED29D2D5A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>完成情况：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,18 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、XXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX（完成人）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下周任务：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遇到问题：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,22 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +46,68 @@
   </si>
   <si>
     <t>超越队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、使用的模板加密不能用
+A、解决方案：重写下载筛选
+ 2、地图需要修改（添加本地信息）
+ 3、我的冰箱
+  A、无法实现扫描功能欠缺，决定去掉
+  B、添加新的模块：我的商城
+  C、我的商城功能点
+1、食品、厨具的合理出售
+2、购物车功能
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下周任务：一、 我的商城—王玉玲和小祁
+二、 个人中心—曹泽晨
+三、 地图、社区--董莹
+四、 登录、注册--袁培凯
+五、 私人订制--小祁
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玉玲、祁虹蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹泽辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董莹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、我的商城UI设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、个人中心UI设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、地图、社区UI设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、登录、注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、私人订制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁虹蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁培凯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -195,11 +229,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -235,6 +349,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -587,7 +749,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -598,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -608,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -623,45 +785,53 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
+      <c r="A8" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -677,7 +847,7 @@
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -685,48 +855,66 @@
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
+  <mergeCells count="15">
+    <mergeCell ref="A18:D19"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:D17"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A10:C10"/>
